--- a/Project 01/LISTA.xlsx
+++ b/Project 01/LISTA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\UVA_COMPUTER_SCIENCE\Project 01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AD6199F-049E-4C7E-8EFC-43BB84BFE609}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{906DBA50-5F2B-4180-BBEA-D7384B36EAA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{7CBEAB6D-0810-4DFF-81A8-F01A60C2C603}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="HISTORICO_APOSTA_EXCEL" localSheetId="0">Planilha1!$A$1:$G$13</definedName>
+    <definedName name="HISTORICO_APOSTA_EXCEL" localSheetId="0">Planilha1!$A$1:$G$2</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +36,7 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{34882271-0AC3-49D3-9B5B-2F6607F1350F}" interval="1" name="HISTORICO_APOSTA_EXCEL" type="6" refreshedVersion="7" background="1" refreshOnLoad="1" saveData="1">
+  <connection id="1" xr16:uid="{34882271-0AC3-49D3-9B5B-2F6607F1350F}" interval="1" name="HISTORICO_APOSTA_EXCEL" type="6" refreshedVersion="8" background="1" refreshOnLoad="1" saveData="1">
     <textPr prompt="0" codePage="65001" sourceFile="C:\Users\User\Documents\UVA_COMPUTER_SCIENCE\Project 01\HISTORICO_APOSTA_EXCEL.txt" decimal="," thousands="." tab="0" comma="1">
       <textFields count="7">
         <textField/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>BILHETE</t>
   </si>
@@ -74,57 +74,6 @@
   </si>
   <si>
     <t>ANIMAL</t>
-  </si>
-  <si>
-    <t>RJ</t>
-  </si>
-  <si>
-    <t>1.00</t>
-  </si>
-  <si>
-    <t>AVESTRUZ</t>
-  </si>
-  <si>
-    <t>2.00</t>
-  </si>
-  <si>
-    <t>CACHORRO</t>
-  </si>
-  <si>
-    <t>CE</t>
-  </si>
-  <si>
-    <t>BORBOLETA</t>
-  </si>
-  <si>
-    <t>BURRO</t>
-  </si>
-  <si>
-    <t>ÁGUIA</t>
-  </si>
-  <si>
-    <t>5.00</t>
-  </si>
-  <si>
-    <t>TIGRE</t>
-  </si>
-  <si>
-    <t>0.10</t>
-  </si>
-  <si>
-    <t>AGUIA</t>
-  </si>
-  <si>
-    <t>R$ 0.12</t>
-  </si>
-  <si>
-    <t>R$ 1500000.00</t>
-  </si>
-  <si>
-    <t>R$ 3.00</t>
-  </si>
-  <si>
-    <t>R$ 4.00</t>
   </si>
 </sst>
 </file>
@@ -482,10 +431,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D37BA21-FAFD-40CD-AF92-5175441942C2}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -495,8 +444,8 @@
     <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -523,304 +472,13 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>8</v>
-      </c>
-      <c r="B2" s="1">
-        <v>44894</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0.69861111111111107</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="2">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="F2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>9</v>
-      </c>
-      <c r="B3" s="1">
-        <v>44894</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0.70000000000000007</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="F3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>10</v>
-      </c>
-      <c r="B4" s="1">
-        <v>44894</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0.70208333333333339</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="2">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="F4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>11</v>
-      </c>
-      <c r="B5" s="1">
-        <v>44894</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0.70208333333333339</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="F5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>12</v>
-      </c>
-      <c r="B6" s="1">
-        <v>44894</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0.70208333333333339</v>
-      </c>
-      <c r="D6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="F6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>13</v>
-      </c>
-      <c r="B7" s="1">
-        <v>44894</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0.70277777777777783</v>
-      </c>
-      <c r="D7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0.59722222222222221</v>
-      </c>
-      <c r="F7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>14</v>
-      </c>
-      <c r="B8" s="1">
-        <v>44894</v>
-      </c>
-      <c r="C8" s="2">
-        <v>0.70347222222222217</v>
-      </c>
-      <c r="D8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="2">
-        <v>0.59722222222222221</v>
-      </c>
-      <c r="F8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>15</v>
-      </c>
-      <c r="B9" s="1">
-        <v>44894</v>
-      </c>
-      <c r="C9" s="2">
-        <v>0.70347222222222217</v>
-      </c>
-      <c r="D9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="2">
-        <v>0.59722222222222221</v>
-      </c>
-      <c r="F9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>16</v>
-      </c>
-      <c r="B10" s="1">
-        <v>44894</v>
-      </c>
-      <c r="C10" s="2">
-        <v>0.70416666666666661</v>
-      </c>
-      <c r="D10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="2">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="F10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>17</v>
-      </c>
-      <c r="B11" s="1">
-        <v>44894</v>
-      </c>
-      <c r="C11" s="2">
-        <v>0.70486111111111116</v>
-      </c>
-      <c r="D11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="2">
-        <v>0.76388888888888884</v>
-      </c>
-      <c r="F11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>18</v>
-      </c>
-      <c r="B12" s="1">
-        <v>44894</v>
-      </c>
-      <c r="C12" s="2">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="D12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="2">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="F12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>19</v>
-      </c>
-      <c r="B13" s="1">
-        <v>44894</v>
-      </c>
-      <c r="C13" s="2">
-        <v>0.71111111111111114</v>
-      </c>
-      <c r="D13" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="2">
-        <v>0.59722222222222221</v>
-      </c>
-      <c r="F13" t="s">
-        <v>22</v>
-      </c>
-      <c r="G13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>50</v>
-      </c>
-      <c r="B14" s="1">
-        <v>44925</v>
-      </c>
-      <c r="C14" s="2">
-        <v>0.74722222222222223</v>
-      </c>
-      <c r="D14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="2">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="F14" t="s">
-        <v>23</v>
-      </c>
-      <c r="G14" t="s">
-        <v>17</v>
-      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="2"/>
+      <c r="E2" s="2"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G13">
-    <sortCondition descending="1" ref="C1:C13"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G2">
+    <sortCondition descending="1" ref="C1:C2"/>
   </sortState>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
